--- a/Template/Шаблон для загрузки табличной части исходящих писем в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки табличной части исходящих писем в DirectumRX.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ИсходящиеПисьма" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ИсходящиеПисьмаТабличнаяЧасть" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Дополнительно" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ИсходящиеПисьма!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ИсходящиеПисьмаТабличнаяЧасть!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +34,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
             <charset val="1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t xml:space="preserve">Id исходящего письма в DirectumRX</t>
   </si>
@@ -71,9 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">Способ доставки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер</t>
   </si>
   <si>
     <t xml:space="preserve">Итог</t>
@@ -124,7 +120,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -154,13 +150,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -258,16 +247,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -291,6 +276,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -319,21 +308,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -432,132 +417,129 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:XEV5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="13.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16376" min="18" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16375" min="17" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16376" min="16376" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16377" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="XEV1" s="0"/>
     </row>
     <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="XEV2" s="0"/>
     </row>
     <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="XEV3" s="0"/>
     </row>
     <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="XEV4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H6"/>
+  <autoFilter ref="A1:G6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -583,42 +565,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="23.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="n">
         <v>4</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,10 +608,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,20 +619,20 @@
         <v>14</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Template/Шаблон для загрузки табличной части исходящих писем в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки табличной части исходящих писем в DirectumRX.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ИсходящиеПисьмаТабличнаяЧасть" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ИсходящиеПисьмаСписокПолучателе" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Дополнительно" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ИсходящиеПисьмаТабличнаяЧасть!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ИсходящиеПисьмаСписокПолучателе!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -260,6 +260,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,10 +279,6 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -419,7 +419,7 @@
   </sheetPr>
   <dimension ref="A1:XEV5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -435,99 +435,99 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16375" min="17" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16376" min="16376" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16376" min="16376" style="3" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16377" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="XEV1" s="0"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="XEV1" s="3"/>
     </row>
     <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="XEV2" s="0"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="XEV2" s="3"/>
     </row>
     <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="XEV3" s="0"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="XEV3" s="3"/>
     </row>
     <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="XEV4" s="0"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="XEV4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
@@ -559,15 +559,15 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="23.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -581,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="n">
         <v>2</v>
       </c>
@@ -592,7 +592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="n">
         <v>4</v>
       </c>
@@ -626,12 +626,12 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Template/Шаблон для загрузки табличной части исходящих писем в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки табличной части исходящих писем в DirectumRX.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="ИсходящиеПисьмаСписокПолучателе" sheetId="1" r:id="rId1"/>
+    <sheet name="ИсходящиеПисьмаАдресаты" sheetId="1" r:id="rId1"/>
     <sheet name="Дополнительно" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ИсходящиеПисьмаСписокПолучателе!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ИсходящиеПисьмаАдресаты!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -623,7 +623,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
